--- a/LifeInsuranceManagement/src/test/resources/Edu.xlsx
+++ b/LifeInsuranceManagement/src/test/resources/Edu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\eclipse-workspace\LifeInsuranceManagement\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\git\TyyMainProject\LifeInsuranceManagement\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD4F961-B1E1-498C-9B84-EDF57E8AFC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9A2858-1C59-4FD9-AA2D-057B52D23204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="5" xr2:uid="{4F637B7F-FBCA-44AD-9F58-F650A515571C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="6" xr2:uid="{4F637B7F-FBCA-44AD-9F58-F650A515571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Payment" sheetId="4" r:id="rId4"/>
     <sheet name="DP" sheetId="5" r:id="rId5"/>
     <sheet name="EditClient" sheetId="6" r:id="rId6"/>
+    <sheet name="Price14" sheetId="10" r:id="rId7"/>
+    <sheet name="Price1" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>client_password</t>
   </si>
@@ -206,142 +208,37 @@
     <t>Bevin</t>
   </si>
   <si>
-    <t>1679658737</t>
-  </si>
-  <si>
-    <t>1679892049</t>
-  </si>
-  <si>
-    <t>1679898058</t>
-  </si>
-  <si>
-    <t>1679898069</t>
-  </si>
-  <si>
-    <t>1679898848</t>
-  </si>
-  <si>
-    <t>1679899918</t>
-  </si>
-  <si>
-    <t>1679900379</t>
-  </si>
-  <si>
-    <t>1679901125</t>
-  </si>
-  <si>
-    <t>1679901264</t>
-  </si>
-  <si>
-    <t>1679901545</t>
-  </si>
-  <si>
-    <t>1679901864</t>
-  </si>
-  <si>
-    <t>1679902488</t>
-  </si>
-  <si>
-    <t>1679902607</t>
-  </si>
-  <si>
-    <t>1679903677</t>
-  </si>
-  <si>
-    <t>1679903759</t>
-  </si>
-  <si>
-    <t>1679903867</t>
-  </si>
-  <si>
-    <t>1679903906</t>
-  </si>
-  <si>
-    <t>1679903963</t>
-  </si>
-  <si>
-    <t>1679908466</t>
-  </si>
-  <si>
-    <t>1679908515</t>
-  </si>
-  <si>
-    <t>1679909460</t>
-  </si>
-  <si>
-    <t>1679909495</t>
-  </si>
-  <si>
-    <t>1679909913</t>
-  </si>
-  <si>
-    <t>1679909916</t>
-  </si>
-  <si>
-    <t>1679910016</t>
-  </si>
-  <si>
-    <t>1679910017</t>
-  </si>
-  <si>
-    <t>1679910051</t>
-  </si>
-  <si>
-    <t>1679910063</t>
-  </si>
-  <si>
-    <t>1679910389</t>
-  </si>
-  <si>
-    <t>1679910455</t>
-  </si>
-  <si>
-    <t>1679910862</t>
-  </si>
-  <si>
-    <t>1679911414</t>
-  </si>
-  <si>
-    <t>1679911509</t>
-  </si>
-  <si>
-    <t>1679911666</t>
-  </si>
-  <si>
-    <t>1679911668</t>
-  </si>
-  <si>
-    <t>1679911992</t>
-  </si>
-  <si>
-    <t>1679911995</t>
-  </si>
-  <si>
-    <t>1679912118</t>
-  </si>
-  <si>
-    <t>1679912122</t>
-  </si>
-  <si>
-    <t>1679912150</t>
-  </si>
-  <si>
-    <t>1679912155</t>
-  </si>
-  <si>
-    <t>1679912233</t>
-  </si>
-  <si>
-    <t>1679912237</t>
-  </si>
-  <si>
-    <t>1679996209</t>
-  </si>
-  <si>
-    <t>1679996787</t>
-  </si>
-  <si>
     <t>1680086995</t>
+  </si>
+  <si>
+    <t>61,999</t>
+  </si>
+  <si>
+    <t>89,999</t>
+  </si>
+  <si>
+    <t>94,900</t>
+  </si>
+  <si>
+    <t>3,799</t>
+  </si>
+  <si>
+    <t>1,140</t>
+  </si>
+  <si>
+    <t>3,199</t>
+  </si>
+  <si>
+    <t>1,330</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>3,499</t>
+  </si>
+  <si>
+    <t>62,990</t>
   </si>
 </sst>
 </file>
@@ -857,6 +754,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE0D559-B45B-40E9-8541-CCD68B3501DD}">
   <dimension ref="A1:B8"/>
@@ -1122,13 +1067,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD6952B-39B7-4C6F-8471-E230D091C9A2}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>57</v>
@@ -1138,4 +1083,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LifeInsuranceManagement/src/test/resources/Edu.xlsx
+++ b/LifeInsuranceManagement/src/test/resources/Edu.xlsx
@@ -21,6 +21,7 @@
     <sheet name="EditClient" sheetId="6" r:id="rId6"/>
     <sheet name="Price14" sheetId="10" r:id="rId7"/>
     <sheet name="Price1" r:id="rId11" sheetId="11"/>
+    <sheet name="Price2" r:id="rId12" sheetId="12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>client_password</t>
   </si>
@@ -239,6 +240,9 @@
   </si>
   <si>
     <t>62,990</t>
+  </si>
+  <si>
+    <t>74,900</t>
   </si>
 </sst>
 </file>
@@ -802,6 +806,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE0D559-B45B-40E9-8541-CCD68B3501DD}">
   <dimension ref="A1:B8"/>
